--- a/biology/Médecine/Louis_Bretonnière/Louis_Bretonnière.xlsx
+++ b/biology/Médecine/Louis_Bretonnière/Louis_Bretonnière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Bretonni%C3%A8re</t>
+          <t>Louis_Bretonnière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Bretonnière est un chirurgien français né le 18 mars 1923 à Saint-Étienne-de-Montluc et mort le 26 juillet 2020 à Savenay.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Bretonni%C3%A8re</t>
+          <t>Louis_Bretonnière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Étienne Pierre Marie Joseph Bretonnière est le fils d'Étienne Bretonnière, greffier, et de Marie-Louise Horveno.
 Après sa scolarité au lycée Saint-Stanislas, il suit ses études à l'École de médecine de Nantes. Interne en médecine au moment de la Seconde Guerre mondiale, il soigne les blessés lors des bombardements de Nantes.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_Bretonni%C3%A8re</t>
+          <t>Louis_Bretonnière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publications
-L'internement des prévenus de la Commune à Rochefort (1871-1872), La Rochelle : Conseil général de la Charente-Maritime, DL 1995 (avec Roger Pérennès)
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'internement des prévenus de la Commune à Rochefort (1871-1872), La Rochelle : Conseil général de la Charente-Maritime, DL 1995 (avec Roger Pérennès)
 1871 : la Commune de Paris, 1991
 Centenaire de la Commune de 1871, Nantes, Chiffoleau, 1971</t>
         </is>
